--- a/public/doc_xls_export/report_renstra_bpom.xlsx
+++ b/public/doc_xls_export/report_renstra_bpom.xlsx
@@ -566,7 +566,44 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>2013/11/06 09:36:52</t>
+          <t>2013/11/06 09:37:46</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Rencana Strategis Badan POM 2014</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Rencana Strategis Badan POM 2014</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Proposal_P11.pdf</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2016/04/18 09:59:55</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2013/11/06 10:39:09</t>
         </is>
       </c>
       <c s="10" t="inlineStr">
@@ -576,12 +613,86 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Peran_Komunitas.pdf</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>zilki</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2013/11/06 10:39:32</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
           <t>asd</t>
         </is>
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>Proposal_P1.pdf</t>
+          <t>asd</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Peran_Komunitas.pdf</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>zilki</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2013/11/06 11:14:23</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Rencana Strategis Badan POM 2015</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>Rencana Strategis Badan POM 2015</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>FAQ_PopBox.pdf</t>
         </is>
       </c>
       <c s="10" t="inlineStr">
@@ -591,155 +702,7 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2013/11/06 09:37:46</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>sds</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>Proposal_P11.pdf</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2013/11/06 10:39:09</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>Peran_Komunitas.pdf</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>zilki</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2013/11/06 10:39:32</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>Peran_Komunitas.pdf</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>zilki</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2013/11/06 11:14:23</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>dasd</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>Proposal_P12.pdf</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c s="10" t="inlineStr">
-        <is>
-          <t>NULL</t>
+          <t>2016/04/18 10:00:46</t>
         </is>
       </c>
     </row>
